--- a/School/Grades.xlsx
+++ b/School/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\10\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FD520B-0475-4C4C-8553-656C9F2F1FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F40ED21-6753-4148-A2F8-8262BADB134F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluids" sheetId="4" r:id="rId1"/>
@@ -380,15 +380,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,15 +398,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,6 +411,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -745,7 +745,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,358 +758,358 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <f>(B25*0.1)+(C25*0.3)+(D25*0.05)+(E25*0.35)+(F25*0.2)</f>
         <v>89.079499999999996</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>100</v>
-      </c>
-      <c r="C5" s="3">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
         <v>103.3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3">
-        <v>100</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2">
         <v>86.6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <v>98.33</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>86.6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>97.66</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>66.66</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>83.3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>93.3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
-        <v>100</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
-        <v>100</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
-        <v>100</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
-        <v>100</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3">
-        <v>100</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3">
-        <v>100</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="5">
-        <f>AVERAGE(B5:B20)</f>
-        <v>100</v>
-      </c>
-      <c r="C25" s="5">
-        <f>AVERAGE(C5:C20)</f>
-        <v>100</v>
-      </c>
-      <c r="D25" s="5">
-        <f>AVERAGE(D5:D20)</f>
-        <v>100</v>
-      </c>
-      <c r="E25" s="5">
-        <f>AVERAGE(E5:E20)</f>
+      <c r="B25" s="4">
+        <f>AVERAGE(B5:B24)</f>
+        <v>100</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:F25" si="0">AVERAGE(C5:C24)</f>
+        <v>100</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
         <v>79.85799999999999</v>
       </c>
-      <c r="F25" s="5">
-        <f>AVERAGE(F5:F20)</f>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
         <v>80.646000000000001</v>
       </c>
     </row>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8175E5-45E1-47A5-B3A4-BCF18AC09414}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1139,289 +1139,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="14" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <f ca="1">(C14*0.4)+(E14*0.25)+(G14*0.25)+(I14*0.1)</f>
         <v>82.830882352941174</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>100</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
         <v>80</v>
       </c>
-      <c r="G5" s="3">
-        <v>100</v>
-      </c>
-      <c r="H5" s="3">
-        <v>100</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="3">
-        <v>100</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2">
         <v>105</v>
       </c>
-      <c r="G6" s="3">
-        <v>100</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>20</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>80</v>
       </c>
-      <c r="C8" s="3">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="C8" s="2">
+        <v>100</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>90</v>
       </c>
-      <c r="C9" s="3">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11">
-        <f ca="1">SUM(B5:B14)</f>
+      <c r="B12" s="9">
+        <f>SUM(B5:B11)</f>
         <v>210</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
-        <f ca="1">SUM(D5:D14)</f>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <f t="shared" ref="C12:I12" si="0">SUM(D5:D11)</f>
         <v>200</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
-        <f ca="1">SUM(F5:F14)</f>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <f ca="1">SUM(H5:H14)</f>
-        <v>100</v>
-      </c>
-      <c r="I12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9">
         <f>SUM(C5:C11)</f>
         <v>340</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
         <f>SUM(E5:E11)</f>
         <v>200</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
         <f ca="1">SUM(G5:G14)</f>
         <v>200</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
         <f>SUM(I5:I11)</f>
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
-        <f ca="1">(B12/C13)*100</f>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <f>(B12/C13)*100</f>
         <v>61.764705882352942</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
-        <f t="shared" ref="E14:I14" ca="1" si="0">(D12/E13)*100</f>
-        <v>100</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:I14" si="1">(D12/E13)*100</f>
+        <v>100</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>92.5</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1452,378 +1452,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="14" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <f>(K16/K17)*100</f>
         <v>50.215053763440864</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>120</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>118</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>15</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>60</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>60</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>10</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>120</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>14</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>60</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>60</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>15</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>15</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>300</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>10</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>15</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <v>10</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>15</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>10</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>15</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <v>10</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
         <v>30</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>30</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>15</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>15</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>15</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>15</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>30</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>30</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>15</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>15</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9">
         <f>SUM(C4:C15)</f>
         <v>118</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <f t="shared" ref="E16:I16" si="0">SUM(E4:E15)</f>
         <v>179</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <f>SUM(C16:I16)</f>
         <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <f>SUM(B4:B15)</f>
         <v>240</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11">
-        <f>SUM(D4:D16)</f>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
+        <f>SUM(D4:D15)</f>
         <v>210</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
         <f>SUM(F4:F15)</f>
         <v>420</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
-        <f>SUM(H4:H16)</f>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <f>SUM(H4:H15)</f>
         <v>60</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="9"/>
+      <c r="J17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <f>SUM(B17:I17)</f>
         <v>930</v>
       </c>
@@ -1842,7 +1842,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1851,294 +1851,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="13">
-        <f ca="1">(B23*0.1)+(C23*0.1)+(D23*0.6)+(E23*0.2)</f>
-        <v>67.261388888888888</v>
+      <c r="G3" s="11">
+        <f>(B23*0.1)+(C23*0.1)+(D23*0.6)+(E23*0.2)</f>
+        <v>89.594722222222231</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>100</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2">
         <v>80</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>87</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
+      <c r="E5" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>100</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>77</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>100</v>
-      </c>
-      <c r="C7" s="3">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
         <v>96</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>100</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
         <v>80</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>93.3</v>
       </c>
-      <c r="C9" s="3">
-        <v>100</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
-        <v>100</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
-        <v>100</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
-        <v>100</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="2">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="2">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>93.75</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
-        <v>100</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
-        <v>100</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
-        <v>100</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
-        <v>100</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
-        <v>100</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="2">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="2">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="2">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="5">
-        <f ca="1">AVERAGE(B5:B29)</f>
-        <v>82.61388888888888</v>
-      </c>
-      <c r="C23" s="5">
-        <f ca="1">AVERAGE(C5:C29)</f>
-        <v>70</v>
-      </c>
-      <c r="D23" s="5">
-        <f ca="1">AVERAGE(D5:D29)</f>
+      <c r="B23" s="4">
+        <f t="shared" ref="B23:D23" si="0">AVERAGE(B5:B22)</f>
+        <v>99.280555555555551</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
         <v>86.666666666666671</v>
       </c>
-      <c r="E23" s="5">
-        <f ca="1">AVERAGE(E5:E29)</f>
-        <v>0</v>
+      <c r="E23" s="4">
+        <f>AVERAGE(E5:E22)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2154,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BF8DE8-1FDD-49A7-A6A5-67C649C46153}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2164,122 +2164,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="13">
-        <f ca="1">(0.1*B8)+(0.3*C8)+(0.3*D8)+(0.3*E8)</f>
+      <c r="G3" s="11">
+        <f>(0.1*B8)+(0.3*C8)+(0.3*D8)+(0.3*E8)</f>
         <v>60.075000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>90</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>101</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>93</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>90</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>102</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>91</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>91</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5">
-        <f ca="1">AVERAGE(B4:B16)</f>
+      <c r="B8" s="4">
+        <f>AVERAGE(B4:B7)</f>
         <v>90</v>
       </c>
-      <c r="C8" s="5">
-        <f ca="1">AVERAGE(C4:C16)</f>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:E8" si="0">AVERAGE(C4:C7)</f>
         <v>101.5</v>
       </c>
-      <c r="D8" s="5">
-        <f ca="1">AVERAGE(D4:D16)</f>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
-      <c r="E8" s="5">
-        <f ca="1">AVERAGE(E4:E16)</f>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/School/Grades.xlsx
+++ b/School/Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\10\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F40ED21-6753-4148-A2F8-8262BADB134F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEAC65C-32DB-4A9B-BBCD-A7DD6459A5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
+    <workbookView xWindow="12480" yWindow="2320" windowWidth="14400" windowHeight="7360" firstSheet="3" activeTab="4" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluids" sheetId="4" r:id="rId1"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9">
-        <f t="shared" ref="C12:I12" si="0">SUM(D5:D11)</f>
+        <f t="shared" ref="D12:H12" si="0">SUM(D5:D11)</f>
         <v>200</v>
       </c>
       <c r="E12" s="9"/>
@@ -1439,7 +1439,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="K3" s="11">
         <f>(K16/K17)*100</f>
-        <v>50.215053763440864</v>
+        <v>52.903225806451616</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1659,7 +1659,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1740,7 +1740,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1776,7 +1776,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9">
         <f t="shared" ref="E16:I16" si="0">SUM(E4:E15)</f>
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9">
@@ -1786,14 +1786,14 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K16" s="4">
         <f>SUM(C16:I16)</f>
-        <v>467</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1841,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2B3C88-EFEE-484D-891B-26C04749A760}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="G3" s="11">
         <f>(B23*0.1)+(C23*0.1)+(D23*0.6)+(E23*0.2)</f>
-        <v>89.594722222222231</v>
+        <v>67.261388888888888</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1916,7 +1916,7 @@
         <v>87</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1983,7 +1983,7 @@
         <v>100</v>
       </c>
       <c r="C10" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2092,7 +2092,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2103,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2114,7 +2114,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2126,11 +2126,11 @@
       </c>
       <c r="B23" s="4">
         <f t="shared" ref="B23:D23" si="0">AVERAGE(B5:B22)</f>
-        <v>99.280555555555551</v>
+        <v>82.61388888888888</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
-        <v>76.666666666666671</v>
+        <v>70</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(E5:E22)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2155,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/School/Grades.xlsx
+++ b/School/Grades.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\10\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEAC65C-32DB-4A9B-BBCD-A7DD6459A5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5862CBA5-D08E-4FA2-9451-F339B84A54C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="2320" windowWidth="14400" windowHeight="7360" firstSheet="3" activeTab="4" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{F238DB66-5457-4E49-9B22-EFF273AE8676}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluids" sheetId="4" r:id="rId1"/>
     <sheet name="MCD" sheetId="5" r:id="rId2"/>
     <sheet name="Instrumentation" sheetId="6" r:id="rId3"/>
     <sheet name="MatSci" sheetId="3" r:id="rId4"/>
-    <sheet name="MEANALYSIS" sheetId="1" r:id="rId5"/>
+    <sheet name="ME ANALYSIS" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2155,7 +2155,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
